--- a/SprintsPhotoalbumPyre.xlsx
+++ b/SprintsPhotoalbumPyre.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Task Name</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Writing Test plan</t>
   </si>
   <si>
-    <t>Writing Functional Specification</t>
-  </si>
-  <si>
     <t>Automated Tests</t>
   </si>
   <si>
-    <t>21.04.16</t>
-  </si>
-  <si>
     <t>Writing Test scenarios with Test cases</t>
   </si>
   <si>
@@ -87,15 +81,9 @@
     <t>Writing Software Requirment Specification</t>
   </si>
   <si>
-    <t>Kriz</t>
-  </si>
-  <si>
     <t>Krasimir/Katerina</t>
   </si>
   <si>
-    <t>Daniela/Kriz/Krasimir</t>
-  </si>
-  <si>
     <t>Task ID:</t>
   </si>
   <si>
@@ -123,10 +111,31 @@
     <t>TASK-08</t>
   </si>
   <si>
-    <t>TASK-09</t>
-  </si>
-  <si>
     <t>Adding diagrams and mock-ups</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Daniela/Kristian/Krasimir</t>
+  </si>
+  <si>
+    <t>Fixing Bugs</t>
+  </si>
+  <si>
+    <t>22.04.16</t>
+  </si>
+  <si>
+    <t>25.04.16</t>
+  </si>
+  <si>
+    <t>04.05.16</t>
+  </si>
+  <si>
+    <t>05.05.16</t>
+  </si>
+  <si>
+    <t>08.05.16</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="A6" t="str">
@@ -742,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +769,7 @@
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -790,7 +799,7 @@
     </row>
     <row r="5" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>4</v>
@@ -802,15 +811,15 @@
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -819,15 +828,15 @@
         <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -836,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -848,13 +857,13 @@
         <v>12</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
@@ -866,15 +875,15 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -883,73 +892,68 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
